--- a/PagoExpensas/SendMail.xlsx
+++ b/PagoExpensas/SendMail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/629571131a2e61a8/Documents/041 - Personal/2024/01 - Mensuales/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{497D60FC-A24D-604F-ABDB-D54083C1B448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A784E93-02F1-AE41-84E6-C1AAAD2469ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8B8D91-C5F1-AA40-8941-D79EA8D36CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{4102BD70-C94C-524B-9B0D-BB9385D55761}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>To</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>02</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
 </sst>
 </file>
@@ -177,10 +183,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,7 +505,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,10 +537,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -550,14 +552,14 @@
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 211")</f>
-        <v>Expensas mes Febrero Suipacha 211</v>
+        <v>Expensas mes Marzo Suipacha 211</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 211.pdf")</f>
-        <v>202402-Expensas Suipacha 211.pdf</v>
+        <v>202403-Expensas Suipacha 211.pdf</v>
       </c>
       <c r="F2" s="1"/>
       <c r="I2" s="1"/>
@@ -571,14 +573,14 @@
       </c>
       <c r="C3" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 644")</f>
-        <v>Expensas mes Febrero Suipacha 644</v>
+        <v>Expensas mes Marzo Suipacha 644</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 644.pdf")</f>
-        <v>202402-Expensas Suipacha 644.pdf</v>
+        <v>202403-Expensas Suipacha 644.pdf</v>
       </c>
       <c r="F3" s="1"/>
       <c r="I3" s="1"/>
@@ -592,14 +594,14 @@
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Bernardo de Irigoyen 650")</f>
-        <v>Expensas mes Febrero Bernardo de Irigoyen 650</v>
+        <v>Expensas mes Marzo Bernardo de Irigoyen 650</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas B de Irigoyen 650.pdf")</f>
-        <v>202402-Expensas B de Irigoyen 650.pdf</v>
+        <v>202403-Expensas B de Irigoyen 650.pdf</v>
       </c>
       <c r="F4" s="1"/>
       <c r="I4" s="1"/>
@@ -613,14 +615,14 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Av. Independencia 1278")</f>
-        <v>Expensas mes Febrero Av. Independencia 1278</v>
+        <v>Expensas mes Marzo Av. Independencia 1278</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Av Independencia 1278.pdf")</f>
-        <v>202402-Expensas Av Independencia 1278.pdf</v>
+        <v>202403-Expensas Av Independencia 1278.pdf</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
@@ -634,14 +636,14 @@
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Cosme Beccar 91")</f>
-        <v>Expensas mes Febrero Cosme Beccar 91</v>
+        <v>Expensas mes Marzo Cosme Beccar 91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Cosme Beccar 91.pdf")</f>
-        <v>202402-Expensas Cosme Beccar 91.pdf</v>
+        <v>202403-Expensas Cosme Beccar 91.pdf</v>
       </c>
       <c r="F6" s="1"/>
       <c r="I6" s="1"/>

--- a/PagoExpensas/SendMail.xlsx
+++ b/PagoExpensas/SendMail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry09678\Documents\GitHub\Personal\PagoExpensas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8B8D91-C5F1-AA40-8941-D79EA8D36CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B48E6EF-62B3-476E-818F-2D716535B4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{4102BD70-C94C-524B-9B0D-BB9385D55761}"/>
+    <workbookView xWindow="-26580" yWindow="1185" windowWidth="25740" windowHeight="14025" xr2:uid="{4102BD70-C94C-524B-9B0D-BB9385D55761}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,17 +112,17 @@
     <t>02</t>
   </si>
   <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>03</t>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Abril</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,7 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,20 +504,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D94F4D4-D3F2-6446-BC49-A8F56E97E626}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="48.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -537,13 +537,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" ht="90">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -552,19 +552,19 @@
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 211")</f>
-        <v>Expensas mes Marzo Suipacha 211</v>
+        <v>Expensas mes Abril Suipacha 211</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 211.pdf")</f>
-        <v>202403-Expensas Suipacha 211.pdf</v>
+        <v>202404-Expensas Suipacha 211.pdf</v>
       </c>
       <c r="F2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="90">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -573,19 +573,19 @@
       </c>
       <c r="C3" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 644")</f>
-        <v>Expensas mes Marzo Suipacha 644</v>
+        <v>Expensas mes Abril Suipacha 644</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 644.pdf")</f>
-        <v>202403-Expensas Suipacha 644.pdf</v>
+        <v>202404-Expensas Suipacha 644.pdf</v>
       </c>
       <c r="F3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="90">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -594,19 +594,19 @@
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Bernardo de Irigoyen 650")</f>
-        <v>Expensas mes Marzo Bernardo de Irigoyen 650</v>
+        <v>Expensas mes Abril Bernardo de Irigoyen 650</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas B de Irigoyen 650.pdf")</f>
-        <v>202403-Expensas B de Irigoyen 650.pdf</v>
+        <v>202404-Expensas B de Irigoyen 650.pdf</v>
       </c>
       <c r="F4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="90">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -615,19 +615,19 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Av. Independencia 1278")</f>
-        <v>Expensas mes Marzo Av. Independencia 1278</v>
+        <v>Expensas mes Abril Av. Independencia 1278</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Av Independencia 1278.pdf")</f>
-        <v>202403-Expensas Av Independencia 1278.pdf</v>
+        <v>202404-Expensas Av Independencia 1278.pdf</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="90">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -636,14 +636,14 @@
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Cosme Beccar 91")</f>
-        <v>Expensas mes Marzo Cosme Beccar 91</v>
+        <v>Expensas mes Abril Cosme Beccar 91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Cosme Beccar 91.pdf")</f>
-        <v>202403-Expensas Cosme Beccar 91.pdf</v>
+        <v>202404-Expensas Cosme Beccar 91.pdf</v>
       </c>
       <c r="F6" s="1"/>
       <c r="I6" s="1"/>
@@ -659,6 +659,9 @@
     <hyperlink ref="B6" r:id="rId7" xr:uid="{F2347F78-DAA1-D445-AFA8-2029B55D7320}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Documento: Personal&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -670,16 +673,16 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="48.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -705,7 +708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="90">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -730,7 +733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="90">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -755,7 +758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="90">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -780,7 +783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="90">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -805,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="90">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -848,5 +851,8 @@
     <hyperlink ref="B6" r:id="rId14" xr:uid="{53AB1376-7F20-E149-85FE-D8E0DD147943}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;10&amp;K000000 Documento: Personal&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/PagoExpensas/SendMail.xlsx
+++ b/PagoExpensas/SendMail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ry09678\Documents\GitHub\Personal\PagoExpensas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B48E6EF-62B3-476E-818F-2D716535B4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1B48E6EF-62B3-476E-818F-2D716535B4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65218785-343F-47FB-AF20-8F348D5D455D}"/>
   <bookViews>
-    <workbookView xWindow="-26580" yWindow="1185" windowWidth="25740" windowHeight="14025" xr2:uid="{4102BD70-C94C-524B-9B0D-BB9385D55761}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4102BD70-C94C-524B-9B0D-BB9385D55761}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,17 +112,17 @@
     <t>02</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Abril</t>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -169,7 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,19 +505,19 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="48.75" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -537,13 +537,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="90">
+    </row>
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -552,19 +552,19 @@
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 211")</f>
-        <v>Expensas mes Abril Suipacha 211</v>
+        <v>Expensas mes Mayo Suipacha 211</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 211.pdf")</f>
-        <v>202404-Expensas Suipacha 211.pdf</v>
+        <v>202405-Expensas Suipacha 211.pdf</v>
       </c>
       <c r="F2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="90">
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -573,19 +573,19 @@
       </c>
       <c r="C3" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 644")</f>
-        <v>Expensas mes Abril Suipacha 644</v>
+        <v>Expensas mes Mayo Suipacha 644</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 644.pdf")</f>
-        <v>202404-Expensas Suipacha 644.pdf</v>
+        <v>202405-Expensas Suipacha 644.pdf</v>
       </c>
       <c r="F3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="90">
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -594,19 +594,19 @@
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Bernardo de Irigoyen 650")</f>
-        <v>Expensas mes Abril Bernardo de Irigoyen 650</v>
+        <v>Expensas mes Mayo Bernardo de Irigoyen 650</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas B de Irigoyen 650.pdf")</f>
-        <v>202404-Expensas B de Irigoyen 650.pdf</v>
+        <v>202405-Expensas B de Irigoyen 650.pdf</v>
       </c>
       <c r="F4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="90">
+    <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -615,19 +615,19 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Av. Independencia 1278")</f>
-        <v>Expensas mes Abril Av. Independencia 1278</v>
+        <v>Expensas mes Mayo Av. Independencia 1278</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Av Independencia 1278.pdf")</f>
-        <v>202404-Expensas Av Independencia 1278.pdf</v>
+        <v>202405-Expensas Av Independencia 1278.pdf</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="90">
+    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -636,14 +636,14 @@
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Cosme Beccar 91")</f>
-        <v>Expensas mes Abril Cosme Beccar 91</v>
+        <v>Expensas mes Mayo Cosme Beccar 91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Cosme Beccar 91.pdf")</f>
-        <v>202404-Expensas Cosme Beccar 91.pdf</v>
+        <v>202405-Expensas Cosme Beccar 91.pdf</v>
       </c>
       <c r="F6" s="1"/>
       <c r="I6" s="1"/>
@@ -673,16 +673,16 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="3" max="3" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="48.75" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -708,7 +708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="90">
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -733,7 +733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90">
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -758,7 +758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="90">
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -783,7 +783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90">
+    <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90">
+    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>

--- a/PagoExpensas/SendMail.xlsx
+++ b/PagoExpensas/SendMail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ypf-my.sharepoint.com/personal/ry09678_grupo_ypf_com/Documents/Documentos/GitHub/Personal/PagoExpensas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1B48E6EF-62B3-476E-818F-2D716535B4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65218785-343F-47FB-AF20-8F348D5D455D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C39AA69-2218-8A41-848B-048B60AEDDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4102BD70-C94C-524B-9B0D-BB9385D55761}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{4102BD70-C94C-524B-9B0D-BB9385D55761}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,10 +112,10 @@
     <t>02</t>
   </si>
   <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>05</t>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Junio</t>
   </si>
 </sst>
 </file>
@@ -504,20 +504,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D94F4D4-D3F2-6446-BC49-A8F56E97E626}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="48.75" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -537,13 +537,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -552,19 +552,19 @@
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 211")</f>
-        <v>Expensas mes Mayo Suipacha 211</v>
+        <v>Expensas mes Junio Suipacha 211</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 211.pdf")</f>
-        <v>202405-Expensas Suipacha 211.pdf</v>
+        <v>202406-Expensas Suipacha 211.pdf</v>
       </c>
       <c r="F2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -573,19 +573,19 @@
       </c>
       <c r="C3" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 644")</f>
-        <v>Expensas mes Mayo Suipacha 644</v>
+        <v>Expensas mes Junio Suipacha 644</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 644.pdf")</f>
-        <v>202405-Expensas Suipacha 644.pdf</v>
+        <v>202406-Expensas Suipacha 644.pdf</v>
       </c>
       <c r="F3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -594,19 +594,19 @@
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Bernardo de Irigoyen 650")</f>
-        <v>Expensas mes Mayo Bernardo de Irigoyen 650</v>
+        <v>Expensas mes Junio Bernardo de Irigoyen 650</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas B de Irigoyen 650.pdf")</f>
-        <v>202405-Expensas B de Irigoyen 650.pdf</v>
+        <v>202406-Expensas B de Irigoyen 650.pdf</v>
       </c>
       <c r="F4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -615,19 +615,19 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Av. Independencia 1278")</f>
-        <v>Expensas mes Mayo Av. Independencia 1278</v>
+        <v>Expensas mes Junio Av. Independencia 1278</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Av Independencia 1278.pdf")</f>
-        <v>202405-Expensas Av Independencia 1278.pdf</v>
+        <v>202406-Expensas Av Independencia 1278.pdf</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -636,14 +636,14 @@
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Cosme Beccar 91")</f>
-        <v>Expensas mes Mayo Cosme Beccar 91</v>
+        <v>Expensas mes Junio Cosme Beccar 91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Cosme Beccar 91.pdf")</f>
-        <v>202405-Expensas Cosme Beccar 91.pdf</v>
+        <v>202406-Expensas Cosme Beccar 91.pdf</v>
       </c>
       <c r="F6" s="1"/>
       <c r="I6" s="1"/>
@@ -673,16 +673,16 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="48.75" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -708,7 +708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -733,7 +733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -758,7 +758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -783,7 +783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -808,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>

--- a/PagoExpensas/SendMail.xlsx
+++ b/PagoExpensas/SendMail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C39AA69-2218-8A41-848B-048B60AEDDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE26AAC7-95E9-4F43-9413-6CD82F866581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{4102BD70-C94C-524B-9B0D-BB9385D55761}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>To</t>
   </si>
@@ -112,10 +112,22 @@
     <t>02</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Junio</t>
+    <t>infopaqexpress@gmail.com</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buen dia.
+Les adjunto el recibo por el alquiler de Rada Tilly.
+Muchas Gracias.
+Saludos,
+Eduardo.
+E. Farina.
+</t>
   </si>
 </sst>
 </file>
@@ -502,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D94F4D4-D3F2-6446-BC49-A8F56E97E626}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,7 +552,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -552,14 +564,14 @@
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 211")</f>
-        <v>Expensas mes Junio Suipacha 211</v>
+        <v>Expensas mes Julio Suipacha 211</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 211.pdf")</f>
-        <v>202406-Expensas Suipacha 211.pdf</v>
+        <v>202407-Expensas Suipacha 211.pdf</v>
       </c>
       <c r="F2" s="1"/>
       <c r="I2" s="1"/>
@@ -573,14 +585,14 @@
       </c>
       <c r="C3" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 644")</f>
-        <v>Expensas mes Junio Suipacha 644</v>
+        <v>Expensas mes Julio Suipacha 644</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 644.pdf")</f>
-        <v>202406-Expensas Suipacha 644.pdf</v>
+        <v>202407-Expensas Suipacha 644.pdf</v>
       </c>
       <c r="F3" s="1"/>
       <c r="I3" s="1"/>
@@ -594,14 +606,14 @@
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Bernardo de Irigoyen 650")</f>
-        <v>Expensas mes Junio Bernardo de Irigoyen 650</v>
+        <v>Expensas mes Julio Bernardo de Irigoyen 650</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas B de Irigoyen 650.pdf")</f>
-        <v>202406-Expensas B de Irigoyen 650.pdf</v>
+        <v>202407-Expensas B de Irigoyen 650.pdf</v>
       </c>
       <c r="F4" s="1"/>
       <c r="I4" s="1"/>
@@ -615,14 +627,14 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Av. Independencia 1278")</f>
-        <v>Expensas mes Junio Av. Independencia 1278</v>
+        <v>Expensas mes Julio Av. Independencia 1278</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Av Independencia 1278.pdf")</f>
-        <v>202406-Expensas Av Independencia 1278.pdf</v>
+        <v>202407-Expensas Av Independencia 1278.pdf</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
@@ -636,17 +648,38 @@
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Cosme Beccar 91")</f>
-        <v>Expensas mes Junio Cosme Beccar 91</v>
+        <v>Expensas mes Julio Cosme Beccar 91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Cosme Beccar 91.pdf")</f>
-        <v>202406-Expensas Cosme Beccar 91.pdf</v>
+        <v>202407-Expensas Cosme Beccar 91.pdf</v>
       </c>
       <c r="F6" s="1"/>
       <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="str">
+        <f>_xlfn.CONCAT("Alquiler mes ",$G$1," Local Rada Tilly")</f>
+        <v>Alquiler mes Julio Local Rada Tilly</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="str">
+        <f>_xlfn.CONCAT("2024",H1,"-AlquilerViaCargo.pdf")</f>
+        <v>202407-AlquilerViaCargo.pdf</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -657,6 +690,8 @@
     <hyperlink ref="B4" r:id="rId5" xr:uid="{89B5872F-611B-AA41-9BF6-5D4E037CA196}"/>
     <hyperlink ref="B5" r:id="rId6" xr:uid="{0C711B48-938C-7E41-9DD2-99DFFB801D8F}"/>
     <hyperlink ref="B6" r:id="rId7" xr:uid="{F2347F78-DAA1-D445-AFA8-2029B55D7320}"/>
+    <hyperlink ref="A7" r:id="rId8" xr:uid="{7282B730-50AF-754E-854A-B10E1DCA4A87}"/>
+    <hyperlink ref="B7" r:id="rId9" xr:uid="{4962A6CE-9361-FD4F-82EE-A03852EDDD9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>

--- a/PagoExpensas/SendMail.xlsx
+++ b/PagoExpensas/SendMail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE26AAC7-95E9-4F43-9413-6CD82F866581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB8555-BD96-9344-AAF4-D041DE93632A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{4102BD70-C94C-524B-9B0D-BB9385D55761}"/>
   </bookViews>
@@ -115,12 +115,6 @@
     <t>infopaqexpress@gmail.com</t>
   </si>
   <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
     <t xml:space="preserve">Buen dia.
 Les adjunto el recibo por el alquiler de Rada Tilly.
 Muchas Gracias.
@@ -128,6 +122,12 @@
 Eduardo.
 E. Farina.
 </t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>08</t>
   </si>
 </sst>
 </file>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D94F4D4-D3F2-6446-BC49-A8F56E97E626}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,10 +549,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -564,14 +564,14 @@
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 211")</f>
-        <v>Expensas mes Julio Suipacha 211</v>
+        <v>Expensas mes Agosto Suipacha 211</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 211.pdf")</f>
-        <v>202407-Expensas Suipacha 211.pdf</v>
+        <v>202408-Expensas Suipacha 211.pdf</v>
       </c>
       <c r="F2" s="1"/>
       <c r="I2" s="1"/>
@@ -585,14 +585,14 @@
       </c>
       <c r="C3" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 644")</f>
-        <v>Expensas mes Julio Suipacha 644</v>
+        <v>Expensas mes Agosto Suipacha 644</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 644.pdf")</f>
-        <v>202407-Expensas Suipacha 644.pdf</v>
+        <v>202408-Expensas Suipacha 644.pdf</v>
       </c>
       <c r="F3" s="1"/>
       <c r="I3" s="1"/>
@@ -606,14 +606,14 @@
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Bernardo de Irigoyen 650")</f>
-        <v>Expensas mes Julio Bernardo de Irigoyen 650</v>
+        <v>Expensas mes Agosto Bernardo de Irigoyen 650</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas B de Irigoyen 650.pdf")</f>
-        <v>202407-Expensas B de Irigoyen 650.pdf</v>
+        <v>202408-Expensas B de Irigoyen 650.pdf</v>
       </c>
       <c r="F4" s="1"/>
       <c r="I4" s="1"/>
@@ -627,14 +627,14 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Av. Independencia 1278")</f>
-        <v>Expensas mes Julio Av. Independencia 1278</v>
+        <v>Expensas mes Agosto Av. Independencia 1278</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Av Independencia 1278.pdf")</f>
-        <v>202407-Expensas Av Independencia 1278.pdf</v>
+        <v>202408-Expensas Av Independencia 1278.pdf</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
@@ -648,14 +648,14 @@
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Cosme Beccar 91")</f>
-        <v>Expensas mes Julio Cosme Beccar 91</v>
+        <v>Expensas mes Agosto Cosme Beccar 91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Cosme Beccar 91.pdf")</f>
-        <v>202407-Expensas Cosme Beccar 91.pdf</v>
+        <v>202408-Expensas Cosme Beccar 91.pdf</v>
       </c>
       <c r="F6" s="1"/>
       <c r="I6" s="1"/>
@@ -669,14 +669,14 @@
       </c>
       <c r="C7" t="str">
         <f>_xlfn.CONCAT("Alquiler mes ",$G$1," Local Rada Tilly")</f>
-        <v>Alquiler mes Julio Local Rada Tilly</v>
+        <v>Alquiler mes Agosto Local Rada Tilly</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-AlquilerViaCargo.pdf")</f>
-        <v>202407-AlquilerViaCargo.pdf</v>
+        <v>202408-AlquilerViaCargo.pdf</v>
       </c>
       <c r="F7" s="1"/>
       <c r="I7" s="1"/>

--- a/PagoExpensas/SendMail.xlsx
+++ b/PagoExpensas/SendMail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CB8555-BD96-9344-AAF4-D041DE93632A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1C3029-AA6A-E146-9BF8-AB52BE1C7D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{4102BD70-C94C-524B-9B0D-BB9385D55761}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>To</t>
   </si>
@@ -124,10 +124,13 @@
 </t>
   </si>
   <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>08</t>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>consorciosgm.adm@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -516,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D94F4D4-D3F2-6446-BC49-A8F56E97E626}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,14 +567,14 @@
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 211")</f>
-        <v>Expensas mes Agosto Suipacha 211</v>
+        <v>Expensas mes Septiembre Suipacha 211</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 211.pdf")</f>
-        <v>202408-Expensas Suipacha 211.pdf</v>
+        <v>202409-Expensas Suipacha 211.pdf</v>
       </c>
       <c r="F2" s="1"/>
       <c r="I2" s="1"/>
@@ -581,18 +584,18 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C3" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 644")</f>
-        <v>Expensas mes Agosto Suipacha 644</v>
+        <v>Expensas mes Septiembre Suipacha 644</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 644.pdf")</f>
-        <v>202408-Expensas Suipacha 644.pdf</v>
+        <v>202409-Expensas Suipacha 644.pdf</v>
       </c>
       <c r="F3" s="1"/>
       <c r="I3" s="1"/>
@@ -606,14 +609,14 @@
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Bernardo de Irigoyen 650")</f>
-        <v>Expensas mes Agosto Bernardo de Irigoyen 650</v>
+        <v>Expensas mes Septiembre Bernardo de Irigoyen 650</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas B de Irigoyen 650.pdf")</f>
-        <v>202408-Expensas B de Irigoyen 650.pdf</v>
+        <v>202409-Expensas B de Irigoyen 650.pdf</v>
       </c>
       <c r="F4" s="1"/>
       <c r="I4" s="1"/>
@@ -627,14 +630,14 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Av. Independencia 1278")</f>
-        <v>Expensas mes Agosto Av. Independencia 1278</v>
+        <v>Expensas mes Septiembre Av. Independencia 1278</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Av Independencia 1278.pdf")</f>
-        <v>202408-Expensas Av Independencia 1278.pdf</v>
+        <v>202409-Expensas Av Independencia 1278.pdf</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
@@ -648,14 +651,14 @@
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Cosme Beccar 91")</f>
-        <v>Expensas mes Agosto Cosme Beccar 91</v>
+        <v>Expensas mes Septiembre Cosme Beccar 91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Cosme Beccar 91.pdf")</f>
-        <v>202408-Expensas Cosme Beccar 91.pdf</v>
+        <v>202409-Expensas Cosme Beccar 91.pdf</v>
       </c>
       <c r="F6" s="1"/>
       <c r="I6" s="1"/>
@@ -669,14 +672,14 @@
       </c>
       <c r="C7" t="str">
         <f>_xlfn.CONCAT("Alquiler mes ",$G$1," Local Rada Tilly")</f>
-        <v>Alquiler mes Agosto Local Rada Tilly</v>
+        <v>Alquiler mes Septiembre Local Rada Tilly</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-AlquilerViaCargo.pdf")</f>
-        <v>202408-AlquilerViaCargo.pdf</v>
+        <v>202409-AlquilerViaCargo.pdf</v>
       </c>
       <c r="F7" s="1"/>
       <c r="I7" s="1"/>

--- a/PagoExpensas/SendMail.xlsx
+++ b/PagoExpensas/SendMail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/Documents/GitHub/Personal/PagoExpensas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1C3029-AA6A-E146-9BF8-AB52BE1C7D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B3205A-E4A2-DB44-AB77-8FB5C35DAB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{4102BD70-C94C-524B-9B0D-BB9385D55761}"/>
   </bookViews>
@@ -124,13 +124,13 @@
 </t>
   </si>
   <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
     <t>consorciosgm.adm@gmail.com</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D94F4D4-D3F2-6446-BC49-A8F56E97E626}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,10 +552,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -567,14 +567,14 @@
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 211")</f>
-        <v>Expensas mes Septiembre Suipacha 211</v>
+        <v>Expensas mes Octubre Suipacha 211</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 211.pdf")</f>
-        <v>202409-Expensas Suipacha 211.pdf</v>
+        <v>202410-Expensas Suipacha 211.pdf</v>
       </c>
       <c r="F2" s="1"/>
       <c r="I2" s="1"/>
@@ -584,18 +584,18 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Suipacha 644")</f>
-        <v>Expensas mes Septiembre Suipacha 644</v>
+        <v>Expensas mes Octubre Suipacha 644</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Suipacha 644.pdf")</f>
-        <v>202409-Expensas Suipacha 644.pdf</v>
+        <v>202410-Expensas Suipacha 644.pdf</v>
       </c>
       <c r="F3" s="1"/>
       <c r="I3" s="1"/>
@@ -609,14 +609,14 @@
       </c>
       <c r="C4" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Bernardo de Irigoyen 650")</f>
-        <v>Expensas mes Septiembre Bernardo de Irigoyen 650</v>
+        <v>Expensas mes Octubre Bernardo de Irigoyen 650</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas B de Irigoyen 650.pdf")</f>
-        <v>202409-Expensas B de Irigoyen 650.pdf</v>
+        <v>202410-Expensas B de Irigoyen 650.pdf</v>
       </c>
       <c r="F4" s="1"/>
       <c r="I4" s="1"/>
@@ -630,14 +630,14 @@
       </c>
       <c r="C5" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Av. Independencia 1278")</f>
-        <v>Expensas mes Septiembre Av. Independencia 1278</v>
+        <v>Expensas mes Octubre Av. Independencia 1278</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Av Independencia 1278.pdf")</f>
-        <v>202409-Expensas Av Independencia 1278.pdf</v>
+        <v>202410-Expensas Av Independencia 1278.pdf</v>
       </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
@@ -651,14 +651,14 @@
       </c>
       <c r="C6" t="str">
         <f>_xlfn.CONCAT("Expensas mes ",$G$1," Cosme Beccar 91")</f>
-        <v>Expensas mes Septiembre Cosme Beccar 91</v>
+        <v>Expensas mes Octubre Cosme Beccar 91</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-Expensas Cosme Beccar 91.pdf")</f>
-        <v>202409-Expensas Cosme Beccar 91.pdf</v>
+        <v>202410-Expensas Cosme Beccar 91.pdf</v>
       </c>
       <c r="F6" s="1"/>
       <c r="I6" s="1"/>
@@ -672,14 +672,14 @@
       </c>
       <c r="C7" t="str">
         <f>_xlfn.CONCAT("Alquiler mes ",$G$1," Local Rada Tilly")</f>
-        <v>Alquiler mes Septiembre Local Rada Tilly</v>
+        <v>Alquiler mes Octubre Local Rada Tilly</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" t="str">
         <f>_xlfn.CONCAT("2024",H1,"-AlquilerViaCargo.pdf")</f>
-        <v>202409-AlquilerViaCargo.pdf</v>
+        <v>202410-AlquilerViaCargo.pdf</v>
       </c>
       <c r="F7" s="1"/>
       <c r="I7" s="1"/>
